--- a/6/1/1/2/Derivados suscripciones por contraparte 2007 a 2021 - Mensual.xlsx
+++ b/6/1/1/2/Derivados suscripciones por contraparte 2007 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="188">
   <si>
     <t>Serie</t>
   </si>
@@ -575,6 +575,9 @@
   </si>
   <si>
     <t>01-06-2021</t>
+  </si>
+  <si>
+    <t>01-07-2021</t>
   </si>
 </sst>
 </file>
@@ -932,7 +935,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AA175"/>
+  <dimension ref="A1:AA176"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -15219,16 +15222,16 @@
         <v>184</v>
       </c>
       <c r="B173">
-        <v>117421</v>
+        <v>117419</v>
       </c>
       <c r="C173">
-        <v>69878</v>
+        <v>69876</v>
       </c>
       <c r="D173">
-        <v>21111</v>
+        <v>21110</v>
       </c>
       <c r="E173">
-        <v>23625</v>
+        <v>23623</v>
       </c>
       <c r="F173">
         <v>25142</v>
@@ -15243,13 +15246,13 @@
         <v>14054</v>
       </c>
       <c r="J173">
-        <v>7639</v>
+        <v>7637</v>
       </c>
       <c r="K173">
         <v>1746</v>
       </c>
       <c r="L173">
-        <v>5892</v>
+        <v>5890</v>
       </c>
       <c r="M173">
         <v>1595</v>
@@ -15302,16 +15305,16 @@
         <v>185</v>
       </c>
       <c r="B174">
-        <v>102426</v>
+        <v>102419</v>
       </c>
       <c r="C174">
-        <v>61595</v>
+        <v>61588</v>
       </c>
       <c r="D174">
-        <v>18217</v>
+        <v>18213</v>
       </c>
       <c r="E174">
-        <v>22610</v>
+        <v>22607</v>
       </c>
       <c r="F174">
         <v>20768</v>
@@ -15326,13 +15329,13 @@
         <v>14296</v>
       </c>
       <c r="J174">
-        <v>6691</v>
+        <v>6685</v>
       </c>
       <c r="K174">
-        <v>2174</v>
+        <v>2170</v>
       </c>
       <c r="L174">
-        <v>4517</v>
+        <v>4515</v>
       </c>
       <c r="M174">
         <v>1710</v>
@@ -15362,7 +15365,7 @@
         <v>551</v>
       </c>
       <c r="V174">
-        <v>3638</v>
+        <v>3637</v>
       </c>
       <c r="W174">
         <v>1487</v>
@@ -15385,16 +15388,16 @@
         <v>186</v>
       </c>
       <c r="B175">
-        <v>94944</v>
+        <v>94943</v>
       </c>
       <c r="C175">
-        <v>52772</v>
+        <v>52771</v>
       </c>
       <c r="D175">
         <v>14468</v>
       </c>
       <c r="E175">
-        <v>16829</v>
+        <v>16828</v>
       </c>
       <c r="F175">
         <v>21475</v>
@@ -15409,13 +15412,13 @@
         <v>7808</v>
       </c>
       <c r="J175">
-        <v>6992</v>
+        <v>6991</v>
       </c>
       <c r="K175">
         <v>2083</v>
       </c>
       <c r="L175">
-        <v>4909</v>
+        <v>4908</v>
       </c>
       <c r="M175">
         <v>1480</v>
@@ -15461,6 +15464,89 @@
       </c>
       <c r="AA175">
         <v>20074</v>
+      </c>
+    </row>
+    <row r="176" spans="1:27">
+      <c r="A176" t="s">
+        <v>187</v>
+      </c>
+      <c r="B176">
+        <v>88078</v>
+      </c>
+      <c r="C176">
+        <v>45088</v>
+      </c>
+      <c r="D176">
+        <v>12912</v>
+      </c>
+      <c r="E176">
+        <v>13623</v>
+      </c>
+      <c r="F176">
+        <v>18554</v>
+      </c>
+      <c r="G176">
+        <v>12571</v>
+      </c>
+      <c r="H176">
+        <v>6445</v>
+      </c>
+      <c r="I176">
+        <v>6126</v>
+      </c>
+      <c r="J176">
+        <v>6247</v>
+      </c>
+      <c r="K176">
+        <v>2092</v>
+      </c>
+      <c r="L176">
+        <v>4156</v>
+      </c>
+      <c r="M176">
+        <v>1583</v>
+      </c>
+      <c r="N176">
+        <v>1091</v>
+      </c>
+      <c r="O176">
+        <v>492</v>
+      </c>
+      <c r="P176">
+        <v>1037</v>
+      </c>
+      <c r="Q176">
+        <v>542</v>
+      </c>
+      <c r="R176">
+        <v>495</v>
+      </c>
+      <c r="S176">
+        <v>2043</v>
+      </c>
+      <c r="T176">
+        <v>1243</v>
+      </c>
+      <c r="U176">
+        <v>800</v>
+      </c>
+      <c r="V176">
+        <v>3053</v>
+      </c>
+      <c r="W176">
+        <v>1499</v>
+      </c>
+      <c r="X176">
+        <v>1554</v>
+      </c>
+      <c r="Y176">
+        <v>42989</v>
+      </c>
+      <c r="Z176">
+        <v>20859</v>
+      </c>
+      <c r="AA176">
+        <v>22130</v>
       </c>
     </row>
   </sheetData>

--- a/6/1/1/2/Derivados suscripciones por contraparte 2007 a 2021 - Mensual.xlsx
+++ b/6/1/1/2/Derivados suscripciones por contraparte 2007 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="189">
   <si>
     <t>Serie</t>
   </si>
@@ -578,6 +578,9 @@
   </si>
   <si>
     <t>01-07-2021</t>
+  </si>
+  <si>
+    <t>01-08-2021</t>
   </si>
 </sst>
 </file>
@@ -935,7 +938,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AA176"/>
+  <dimension ref="A1:AA177"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -15305,16 +15308,16 @@
         <v>185</v>
       </c>
       <c r="B174">
-        <v>102419</v>
+        <v>102414</v>
       </c>
       <c r="C174">
-        <v>61588</v>
+        <v>61583</v>
       </c>
       <c r="D174">
-        <v>18213</v>
+        <v>18210</v>
       </c>
       <c r="E174">
-        <v>22607</v>
+        <v>22605</v>
       </c>
       <c r="F174">
         <v>20768</v>
@@ -15329,10 +15332,10 @@
         <v>14296</v>
       </c>
       <c r="J174">
-        <v>6685</v>
+        <v>6681</v>
       </c>
       <c r="K174">
-        <v>2170</v>
+        <v>2167</v>
       </c>
       <c r="L174">
         <v>4515</v>
@@ -15365,13 +15368,13 @@
         <v>551</v>
       </c>
       <c r="V174">
-        <v>3637</v>
+        <v>3636</v>
       </c>
       <c r="W174">
         <v>1487</v>
       </c>
       <c r="X174">
-        <v>2151</v>
+        <v>2149</v>
       </c>
       <c r="Y174">
         <v>40830</v>
@@ -15388,7 +15391,7 @@
         <v>186</v>
       </c>
       <c r="B175">
-        <v>94943</v>
+        <v>94993</v>
       </c>
       <c r="C175">
         <v>52771</v>
@@ -15457,10 +15460,10 @@
         <v>2164</v>
       </c>
       <c r="Y175">
-        <v>42173</v>
+        <v>42223</v>
       </c>
       <c r="Z175">
-        <v>22099</v>
+        <v>22149</v>
       </c>
       <c r="AA175">
         <v>20074</v>
@@ -15471,16 +15474,16 @@
         <v>187</v>
       </c>
       <c r="B176">
-        <v>88078</v>
+        <v>88072</v>
       </c>
       <c r="C176">
-        <v>45088</v>
+        <v>45083</v>
       </c>
       <c r="D176">
-        <v>12912</v>
+        <v>12903</v>
       </c>
       <c r="E176">
-        <v>13623</v>
+        <v>13626</v>
       </c>
       <c r="F176">
         <v>18554</v>
@@ -15495,13 +15498,13 @@
         <v>6126</v>
       </c>
       <c r="J176">
-        <v>6247</v>
+        <v>6246</v>
       </c>
       <c r="K176">
-        <v>2092</v>
+        <v>2087</v>
       </c>
       <c r="L176">
-        <v>4156</v>
+        <v>4159</v>
       </c>
       <c r="M176">
         <v>1583</v>
@@ -15522,10 +15525,10 @@
         <v>495</v>
       </c>
       <c r="S176">
-        <v>2043</v>
+        <v>2039</v>
       </c>
       <c r="T176">
-        <v>1243</v>
+        <v>1239</v>
       </c>
       <c r="U176">
         <v>800</v>
@@ -15547,6 +15550,89 @@
       </c>
       <c r="AA176">
         <v>22130</v>
+      </c>
+    </row>
+    <row r="177" spans="1:27">
+      <c r="A177" t="s">
+        <v>188</v>
+      </c>
+      <c r="B177">
+        <v>93932</v>
+      </c>
+      <c r="C177">
+        <v>50098</v>
+      </c>
+      <c r="D177">
+        <v>14974</v>
+      </c>
+      <c r="E177">
+        <v>15102</v>
+      </c>
+      <c r="F177">
+        <v>20022</v>
+      </c>
+      <c r="G177">
+        <v>15822</v>
+      </c>
+      <c r="H177">
+        <v>8629</v>
+      </c>
+      <c r="I177">
+        <v>7193</v>
+      </c>
+      <c r="J177">
+        <v>6918</v>
+      </c>
+      <c r="K177">
+        <v>2239</v>
+      </c>
+      <c r="L177">
+        <v>4680</v>
+      </c>
+      <c r="M177">
+        <v>1648</v>
+      </c>
+      <c r="N177">
+        <v>1108</v>
+      </c>
+      <c r="O177">
+        <v>540</v>
+      </c>
+      <c r="P177">
+        <v>1167</v>
+      </c>
+      <c r="Q177">
+        <v>531</v>
+      </c>
+      <c r="R177">
+        <v>636</v>
+      </c>
+      <c r="S177">
+        <v>1512</v>
+      </c>
+      <c r="T177">
+        <v>1035</v>
+      </c>
+      <c r="U177">
+        <v>477</v>
+      </c>
+      <c r="V177">
+        <v>3009</v>
+      </c>
+      <c r="W177">
+        <v>1432</v>
+      </c>
+      <c r="X177">
+        <v>1577</v>
+      </c>
+      <c r="Y177">
+        <v>43833</v>
+      </c>
+      <c r="Z177">
+        <v>22203</v>
+      </c>
+      <c r="AA177">
+        <v>21631</v>
       </c>
     </row>
   </sheetData>

--- a/6/1/1/2/Derivados suscripciones por contraparte 2007 a 2021 - Mensual.xlsx
+++ b/6/1/1/2/Derivados suscripciones por contraparte 2007 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="190">
   <si>
     <t>Serie</t>
   </si>
@@ -581,6 +581,9 @@
   </si>
   <si>
     <t>01-08-2021</t>
+  </si>
+  <si>
+    <t>01-09-2021</t>
   </si>
 </sst>
 </file>
@@ -938,7 +941,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AA177"/>
+  <dimension ref="A1:AA178"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -15474,16 +15477,16 @@
         <v>187</v>
       </c>
       <c r="B176">
-        <v>88072</v>
+        <v>88067</v>
       </c>
       <c r="C176">
-        <v>45083</v>
+        <v>45078</v>
       </c>
       <c r="D176">
-        <v>12903</v>
+        <v>12899</v>
       </c>
       <c r="E176">
-        <v>13626</v>
+        <v>13625</v>
       </c>
       <c r="F176">
         <v>18554</v>
@@ -15498,13 +15501,13 @@
         <v>6126</v>
       </c>
       <c r="J176">
-        <v>6246</v>
+        <v>6241</v>
       </c>
       <c r="K176">
-        <v>2087</v>
+        <v>2083</v>
       </c>
       <c r="L176">
-        <v>4159</v>
+        <v>4158</v>
       </c>
       <c r="M176">
         <v>1583</v>
@@ -15557,16 +15560,16 @@
         <v>188</v>
       </c>
       <c r="B177">
-        <v>93932</v>
+        <v>93927</v>
       </c>
       <c r="C177">
-        <v>50098</v>
+        <v>50094</v>
       </c>
       <c r="D177">
         <v>14974</v>
       </c>
       <c r="E177">
-        <v>15102</v>
+        <v>15098</v>
       </c>
       <c r="F177">
         <v>20022</v>
@@ -15581,13 +15584,13 @@
         <v>7193</v>
       </c>
       <c r="J177">
-        <v>6918</v>
+        <v>6914</v>
       </c>
       <c r="K177">
-        <v>2239</v>
+        <v>2238</v>
       </c>
       <c r="L177">
-        <v>4680</v>
+        <v>4676</v>
       </c>
       <c r="M177">
         <v>1648</v>
@@ -15633,6 +15636,89 @@
       </c>
       <c r="AA177">
         <v>21631</v>
+      </c>
+    </row>
+    <row r="178" spans="1:27">
+      <c r="A178" t="s">
+        <v>189</v>
+      </c>
+      <c r="B178">
+        <v>100593</v>
+      </c>
+      <c r="C178">
+        <v>51006</v>
+      </c>
+      <c r="D178">
+        <v>13100</v>
+      </c>
+      <c r="E178">
+        <v>14720</v>
+      </c>
+      <c r="F178">
+        <v>23186</v>
+      </c>
+      <c r="G178">
+        <v>13227</v>
+      </c>
+      <c r="H178">
+        <v>6760</v>
+      </c>
+      <c r="I178">
+        <v>6466</v>
+      </c>
+      <c r="J178">
+        <v>7122</v>
+      </c>
+      <c r="K178">
+        <v>2229</v>
+      </c>
+      <c r="L178">
+        <v>4894</v>
+      </c>
+      <c r="M178">
+        <v>1628</v>
+      </c>
+      <c r="N178">
+        <v>1103</v>
+      </c>
+      <c r="O178">
+        <v>525</v>
+      </c>
+      <c r="P178">
+        <v>1367</v>
+      </c>
+      <c r="Q178">
+        <v>685</v>
+      </c>
+      <c r="R178">
+        <v>682</v>
+      </c>
+      <c r="S178">
+        <v>1924</v>
+      </c>
+      <c r="T178">
+        <v>1184</v>
+      </c>
+      <c r="U178">
+        <v>740</v>
+      </c>
+      <c r="V178">
+        <v>2552</v>
+      </c>
+      <c r="W178">
+        <v>1139</v>
+      </c>
+      <c r="X178">
+        <v>1413</v>
+      </c>
+      <c r="Y178">
+        <v>49587</v>
+      </c>
+      <c r="Z178">
+        <v>24644</v>
+      </c>
+      <c r="AA178">
+        <v>24943</v>
       </c>
     </row>
   </sheetData>
